--- a/Data_preparation/datasets/final_data/Symbotic_Inc.xlsx
+++ b/Data_preparation/datasets/final_data/Symbotic_Inc.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="44">
   <si>
     <t>Ticker</t>
   </si>
@@ -146,45 +146,6 @@
   </si>
   <si>
     <t>USD</t>
-  </si>
-  <si>
-    <t>WKL NA</t>
-  </si>
-  <si>
-    <t>AMP IM</t>
-  </si>
-  <si>
-    <t>EXPN LN</t>
-  </si>
-  <si>
-    <t>UBI FP</t>
-  </si>
-  <si>
-    <t>XRO AU</t>
-  </si>
-  <si>
-    <t>3690 HK</t>
-  </si>
-  <si>
-    <t>2337 TT</t>
-  </si>
-  <si>
-    <t>5803 JP</t>
-  </si>
-  <si>
-    <t>3443 TT</t>
-  </si>
-  <si>
-    <t>2344 TT</t>
-  </si>
-  <si>
-    <t>TIETO FH</t>
-  </si>
-  <si>
-    <t>6701 JP</t>
-  </si>
-  <si>
-    <t>ENR GR</t>
   </si>
 </sst>
 </file>
@@ -691,22 +652,22 @@
         <v>44100</v>
       </c>
       <c r="D2">
-        <v>67.0365573733727</v>
+        <v>10.39000034332275</v>
       </c>
       <c r="E2">
-        <v>64.00115203857422</v>
+        <v>10.10000038146973</v>
       </c>
       <c r="F2">
-        <v>68.47148302140339</v>
+        <v>10.5</v>
       </c>
       <c r="G2">
-        <v>63.04453727911305</v>
+        <v>9.819999694824221</v>
       </c>
       <c r="H2">
-        <v>229140423</v>
+        <v>111314938</v>
       </c>
       <c r="I2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K2">
         <v>-58264000</v>
@@ -732,22 +693,22 @@
         <v>44196</v>
       </c>
       <c r="D3">
-        <v>32.50755730601569</v>
+        <v>10.39000034332275</v>
       </c>
       <c r="E3">
-        <v>31.25653076171875</v>
+        <v>10.10000038146973</v>
       </c>
       <c r="F3">
-        <v>32.99459606093095</v>
+        <v>10.5</v>
       </c>
       <c r="G3">
-        <v>30.77904021483708</v>
+        <v>9.819999694824221</v>
       </c>
       <c r="H3">
-        <v>219937482</v>
+        <v>111314938</v>
       </c>
       <c r="I3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K3">
         <v>17750</v>
@@ -818,22 +779,22 @@
         <v>44286</v>
       </c>
       <c r="D4">
-        <v>2516.34996159507</v>
+        <v>10.10000038146973</v>
       </c>
       <c r="E4">
-        <v>2790.17041015625</v>
+        <v>10.48999977111816</v>
       </c>
       <c r="F4">
-        <v>2807.159270103477</v>
+        <v>10.69999980926514</v>
       </c>
       <c r="G4">
-        <v>2503.838146397838</v>
+        <v>10.03999996185303</v>
       </c>
       <c r="H4">
-        <v>913159452</v>
+        <v>111314938</v>
       </c>
       <c r="I4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J4">
         <v>363196000</v>
@@ -916,22 +877,22 @@
         <v>44377</v>
       </c>
       <c r="D5">
-        <v>40.06459571156605</v>
+        <v>9.899999618530272</v>
       </c>
       <c r="E5">
-        <v>40.04537963867188</v>
+        <v>9.800000190734863</v>
       </c>
       <c r="F5">
-        <v>40.5353766696543</v>
+        <v>9.979999542236328</v>
       </c>
       <c r="G5">
-        <v>36.25990124070713</v>
+        <v>9.760000228881836</v>
       </c>
       <c r="H5">
-        <v>219937482</v>
+        <v>111314938</v>
       </c>
       <c r="I5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J5">
         <v>407937600</v>
@@ -1014,22 +975,22 @@
         <v>44469</v>
       </c>
       <c r="D6">
-        <v>51.72000122070312</v>
+        <v>9.751999855041504</v>
       </c>
       <c r="E6">
-        <v>45.22999954223633</v>
+        <v>9.989999771118164</v>
       </c>
       <c r="F6">
-        <v>53.2400016784668</v>
+        <v>10.23999977111816</v>
       </c>
       <c r="G6">
-        <v>43.54000091552734</v>
+        <v>9.744999885559082</v>
       </c>
       <c r="H6">
-        <v>134598631</v>
+        <v>111314938</v>
       </c>
       <c r="I6" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="J6">
         <v>403423200</v>
@@ -1115,22 +1076,22 @@
         <v>44555</v>
       </c>
       <c r="D7">
-        <v>141.4400024414062</v>
+        <v>10.02000045776367</v>
       </c>
       <c r="E7">
-        <v>112.9100036621094</v>
+        <v>9.819999694824221</v>
       </c>
       <c r="F7">
-        <v>146.3699951171875</v>
+        <v>10.07999992370606</v>
       </c>
       <c r="G7">
-        <v>102.2300033569336</v>
+        <v>9.760000228881836</v>
       </c>
       <c r="H7">
-        <v>168262866</v>
+        <v>111314938</v>
       </c>
       <c r="I7" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J7">
         <v>409168800</v>
@@ -1228,22 +1189,22 @@
         <v>44646</v>
       </c>
       <c r="D8">
-        <v>40.47000122070312</v>
+        <v>9.920000076293944</v>
       </c>
       <c r="E8">
-        <v>43.15000152587891</v>
+        <v>9.920000076293944</v>
       </c>
       <c r="F8">
-        <v>45.18000030517578</v>
+        <v>9.930000305175779</v>
       </c>
       <c r="G8">
-        <v>33.84000015258789</v>
+        <v>9.890000343322754</v>
       </c>
       <c r="H8">
-        <v>134598631</v>
+        <v>111314938</v>
       </c>
       <c r="I8" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="J8">
         <v>407014200</v>
@@ -1338,22 +1299,22 @@
         <v>44737</v>
       </c>
       <c r="D9">
-        <v>194.1999969482422</v>
+        <v>11.15999984741211</v>
       </c>
       <c r="E9">
-        <v>176.3000030517578</v>
+        <v>17.89999961853027</v>
       </c>
       <c r="F9">
-        <v>205.6000061035156</v>
+        <v>20.75</v>
       </c>
       <c r="G9">
-        <v>173.3000030517578</v>
+        <v>11.15999984741211</v>
       </c>
       <c r="H9">
-        <v>5527428787</v>
+        <v>111314938</v>
       </c>
       <c r="I9" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J9">
         <v>7586389895</v>
@@ -1451,22 +1412,22 @@
         <v>44828</v>
       </c>
       <c r="D10">
-        <v>28.44658953579286</v>
+        <v>11.53999996185303</v>
       </c>
       <c r="E10">
-        <v>27.74822807312012</v>
+        <v>12.34000015258789</v>
       </c>
       <c r="F10">
-        <v>30.82101779847015</v>
+        <v>14.0649995803833</v>
       </c>
       <c r="G10">
-        <v>26.63085079845876</v>
+        <v>11.52799987792969</v>
       </c>
       <c r="H10">
-        <v>1853869000</v>
+        <v>111314938</v>
       </c>
       <c r="I10" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J10">
         <v>5818688622</v>
@@ -1564,22 +1525,22 @@
         <v>44919</v>
       </c>
       <c r="D11">
-        <v>26.97744008499926</v>
+        <v>12.13000011444092</v>
       </c>
       <c r="E11">
-        <v>24.47827339172364</v>
+        <v>15.64999961853027</v>
       </c>
       <c r="F11">
-        <v>27.35522051671615</v>
+        <v>16.05999946594238</v>
       </c>
       <c r="G11">
-        <v>24.23610606932255</v>
+        <v>11.68000030517578</v>
       </c>
       <c r="H11">
-        <v>219937482</v>
+        <v>111314938</v>
       </c>
       <c r="I11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J11">
         <v>6104052374</v>
@@ -1677,22 +1638,22 @@
         <v>45010</v>
       </c>
       <c r="D12">
-        <v>892.8682907767917</v>
+        <v>22.60000038146973</v>
       </c>
       <c r="E12">
-        <v>869.2474365234375</v>
+        <v>26.55999946594238</v>
       </c>
       <c r="F12">
-        <v>892.8682907767917</v>
+        <v>32.17200088500977</v>
       </c>
       <c r="G12">
-        <v>815.3918888257897</v>
+        <v>22.32500076293945</v>
       </c>
       <c r="H12">
-        <v>275900103</v>
+        <v>111314938</v>
       </c>
       <c r="I12" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J12">
         <v>12043659378</v>
@@ -1790,22 +1751,22 @@
         <v>45101</v>
       </c>
       <c r="D13">
-        <v>32.66915939773511</v>
+        <v>42.65999984741211</v>
       </c>
       <c r="E13">
-        <v>30.08024787902832</v>
+        <v>63.54000091552734</v>
       </c>
       <c r="F13">
-        <v>32.8157031764459</v>
+        <v>64.13999938964844</v>
       </c>
       <c r="G13">
-        <v>28.85906214564877</v>
+        <v>35.20000076293945</v>
       </c>
       <c r="H13">
-        <v>219937482</v>
+        <v>111314938</v>
       </c>
       <c r="I13" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J13">
         <v>21946209863</v>
@@ -1903,22 +1864,22 @@
         <v>45199</v>
       </c>
       <c r="D14">
-        <v>1366.269412157012</v>
+        <v>33.54999923706055</v>
       </c>
       <c r="E14">
-        <v>1400.426147460938</v>
+        <v>34.02999877929688</v>
       </c>
       <c r="F14">
-        <v>1722.475366040805</v>
+        <v>47.22999954223633</v>
       </c>
       <c r="G14">
-        <v>1356.510344927319</v>
+        <v>30.80999946594238</v>
       </c>
       <c r="H14">
-        <v>134011000</v>
+        <v>111314938</v>
       </c>
       <c r="I14" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J14">
         <v>18581984265</v>
@@ -2016,22 +1977,22 @@
         <v>45290</v>
       </c>
       <c r="D15">
-        <v>30.45000076293945</v>
+        <v>50.86000061035156</v>
       </c>
       <c r="E15">
-        <v>27.20000076293945</v>
+        <v>43.02999877929688</v>
       </c>
       <c r="F15">
-        <v>30.95000076293945</v>
+        <v>51.84999847412109</v>
       </c>
       <c r="G15">
-        <v>26.79999923706055</v>
+        <v>39.43000030517578</v>
       </c>
       <c r="H15">
-        <v>4500000193</v>
+        <v>111314938</v>
       </c>
       <c r="I15" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="J15">
         <v>28603065602</v>
@@ -2129,22 +2090,22 @@
         <v>45381</v>
       </c>
       <c r="D16">
-        <v>17.26041767183271</v>
+        <v>45.52000045776367</v>
       </c>
       <c r="E16">
-        <v>15.59062194824219</v>
+        <v>38.56999969482422</v>
       </c>
       <c r="F16">
-        <v>17.33072480726006</v>
+        <v>46.22000122070312</v>
       </c>
       <c r="G16">
-        <v>15.2478748725656</v>
+        <v>38.0099983215332</v>
       </c>
       <c r="H16">
-        <v>118401578</v>
+        <v>111314938</v>
       </c>
       <c r="I16" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="J16">
         <v>25967652030</v>
@@ -2242,22 +2203,22 @@
         <v>45472</v>
       </c>
       <c r="D17">
-        <v>2626.188007061298</v>
+        <v>35.52999877929688</v>
       </c>
       <c r="E17">
-        <v>2566.95068359375</v>
+        <v>26.80999946594238</v>
       </c>
       <c r="F17">
-        <v>2793.039801494892</v>
+        <v>41.7599983215332</v>
       </c>
       <c r="G17">
-        <v>2424.781107271634</v>
+        <v>26.02000045776367</v>
       </c>
       <c r="H17">
-        <v>1333460157</v>
+        <v>111314938</v>
       </c>
       <c r="I17" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="J17">
         <v>20555504025</v>
@@ -2355,22 +2316,22 @@
         <v>45563</v>
       </c>
       <c r="D18">
-        <v>149.5</v>
+        <v>24.35000038146973</v>
       </c>
       <c r="E18">
-        <v>149.5</v>
+        <v>27.79000091552734</v>
       </c>
       <c r="F18">
-        <v>152.4900054931641</v>
+        <v>31.77000045776367</v>
       </c>
       <c r="G18">
-        <v>143.1900024414062</v>
+        <v>22.90999984741211</v>
       </c>
       <c r="H18">
-        <v>168262866</v>
+        <v>111314938</v>
       </c>
       <c r="I18" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J18">
         <v>14943925474</v>
@@ -2468,22 +2429,22 @@
         <v>45654</v>
       </c>
       <c r="D19">
-        <v>50.08000183105469</v>
+        <v>24.17000007629395</v>
       </c>
       <c r="E19">
-        <v>57.84000015258789</v>
+        <v>29.35000038146973</v>
       </c>
       <c r="F19">
-        <v>59.43999862670898</v>
+        <v>34.18999862670898</v>
       </c>
       <c r="G19">
-        <v>46.88000106811523</v>
+        <v>23.65999984741211</v>
       </c>
       <c r="H19">
-        <v>795535712</v>
+        <v>111314938</v>
       </c>
       <c r="I19" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="J19">
         <v>14145056503</v>
@@ -2581,22 +2542,22 @@
         <v>45745</v>
       </c>
       <c r="D20">
-        <v>157.6999969482422</v>
+        <v>20.26000022888184</v>
       </c>
       <c r="E20">
-        <v>130.3000030517578</v>
+        <v>21.57999992370605</v>
       </c>
       <c r="F20">
-        <v>160.8000030517578</v>
+        <v>22.64999961853028</v>
       </c>
       <c r="G20">
-        <v>125</v>
+        <v>16.31800079345703</v>
       </c>
       <c r="H20">
-        <v>5527428787</v>
+        <v>111314938</v>
       </c>
       <c r="I20" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J20">
         <v>11861978688</v>
@@ -2694,22 +2655,22 @@
         <v>45836</v>
       </c>
       <c r="D21">
-        <v>4189.703654683593</v>
+        <v>38.5099983215332</v>
       </c>
       <c r="E21">
-        <v>4384.04052734375</v>
+        <v>53.95000076293945</v>
       </c>
       <c r="F21">
-        <v>4409.952110365104</v>
+        <v>55.75</v>
       </c>
       <c r="G21">
-        <v>3767.145531566123</v>
+        <v>38.19300079345703</v>
       </c>
       <c r="H21">
-        <v>1333460157</v>
+        <v>111314938</v>
       </c>
       <c r="I21" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="J21">
         <v>21962992615</v>
